--- a/Recherche/Verbraucher_Liste.xlsx
+++ b/Recherche/Verbraucher_Liste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SCHULE\SCHULE\Diplomarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Recherche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87395C70-EBA3-47EB-A18E-022591027115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4613B0FF-5FC5-4BC5-AE69-50AA97A9B36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A5713B9-7BDF-4B08-B13D-A1629057CF83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A5713B9-7BDF-4B08-B13D-A1629057CF83}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>Berechnungen</t>
   </si>
@@ -166,16 +166,70 @@
   </si>
   <si>
     <t>≈von 100% auf 82%/83% pro Tag</t>
+  </si>
+  <si>
+    <t>Kleinverbraucher</t>
+  </si>
+  <si>
+    <t>Ankerwinch</t>
+  </si>
+  <si>
+    <t>Konverter/Geräte standby</t>
+  </si>
+  <si>
+    <t>Decklicht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warmwasser durch Boiler vorhanden </t>
+  </si>
+  <si>
+    <t>bei (60L ertrag)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bei 60L entnahme </t>
+  </si>
+  <si>
+    <t>Heizung dauerbetrieb</t>
+  </si>
+  <si>
+    <t>Heizung erstes starten</t>
+  </si>
+  <si>
+    <t>zweimal starten</t>
+  </si>
+  <si>
+    <t>zeit anschauen</t>
+  </si>
+  <si>
+    <t>Segelwinch</t>
+  </si>
+  <si>
+    <t>Angenommene Spannung 13,2</t>
+  </si>
+  <si>
+    <t>Spannung 11,5-11,8</t>
+  </si>
+  <si>
+    <t>bei 10m kette ausprobieren und auf 50m hochrechnen</t>
+  </si>
+  <si>
+    <t>3.8L/stunde leerlauf 1500U ergeben bei ca 80%füllgrad ca 120A und bei 90% 40A und bei 98% 10A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -336,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -361,13 +415,15 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -682,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF31DFDF-97B0-4F3A-8875-BFBD65204E48}">
-  <dimension ref="B1:J53"/>
+  <dimension ref="B1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,18 +758,18 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="7" cm="1">
-        <f t="array" ref="G2">SUM(E4:E22-E24)</f>
-        <v>0</v>
+        <f t="array" ref="G2">SUM(E4:E22-E27)</f>
+        <v>26.568000000000001</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -742,8 +798,11 @@
         <v>8</v>
       </c>
       <c r="E4" s="6">
-        <f>C4*D4</f>
-        <v>0</v>
+        <f t="shared" ref="E4:E22" si="0">C4*D4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>48</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>0</v>
@@ -761,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="19">
-        <f>C5*D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="14" t="s">
@@ -777,10 +836,10 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6">
-        <f>C6*D6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="13" t="s">
@@ -797,7 +856,7 @@
         <v>3.3333000000000002E-2</v>
       </c>
       <c r="E7" s="19">
-        <f>C7*D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="12" t="s">
@@ -807,14 +866,14 @@
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>24</v>
       </c>
       <c r="E8" s="6">
-        <f>C8*D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="13" t="s">
@@ -828,10 +887,10 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="19">
-        <f>C9*D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9" s="1"/>
@@ -845,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="6">
-        <f>C10*D10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10" s="1"/>
@@ -859,7 +918,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="19">
-        <f>C11*D11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" t="s">
@@ -872,10 +931,10 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="6">
-        <f>C12*D12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -885,23 +944,23 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E13" s="19">
-        <f>C13*D13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
         <v>0.1</v>
       </c>
       <c r="E14" s="6">
-        <f>C14*D14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="4"/>
@@ -915,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="19">
-        <f>C15*D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15" s="4"/>
@@ -926,10 +985,10 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6">
-        <f>C16*D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16" s="4"/>
@@ -943,7 +1002,7 @@
         <v>7</v>
       </c>
       <c r="E17" s="19">
-        <f>C17*D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J17" s="4"/>
@@ -952,26 +1011,36 @@
       <c r="B18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="2">
+        <v>12</v>
+      </c>
       <c r="D18" s="18">
         <v>0.214</v>
       </c>
       <c r="E18" s="6">
-        <f>C18*D18</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.5680000000000001</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3">
+        <v>12</v>
+      </c>
       <c r="D19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="19">
-        <f>C19*D19</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
@@ -983,7 +1052,7 @@
         <v>1.5</v>
       </c>
       <c r="E20" s="6">
-        <f>C20*D20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -993,14 +1062,14 @@
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="E21" s="19">
-        <f>C21*D21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1008,252 +1077,294 @@
       <c r="D22" s="2">
         <v>0.45</v>
       </c>
-      <c r="E22" s="22">
-        <f>C22*D22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
+      <c r="E22" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24">
+        <v>80</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0.16666600000000001</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="H24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C26" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6">
+      <c r="C27" s="6"/>
+      <c r="D27" s="6">
         <v>0.2</v>
       </c>
-      <c r="E24" s="6">
-        <f>C24*D24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F25" s="1"/>
-    </row>
-    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="E27" s="6">
+        <f>C27*D27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="7" t="e" cm="1">
+        <f t="array" ref="G29">SUM(E31:E50-E56)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
     <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="7" cm="1">
-        <f t="array" ref="G30">SUM(E32:E50-E52)</f>
-        <v>0</v>
+      <c r="B30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6">
+        <v>7</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" ref="E31:E49" si="1">C31*D31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3">
+        <v>7</v>
+      </c>
+      <c r="E32" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
+        <v>10</v>
+      </c>
+      <c r="E33" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="13"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="17">
+        <v>3.3333000000000002E-2</v>
+      </c>
+      <c r="E34" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
         <v>24</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6">
+      <c r="E35" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3">
+        <v>3</v>
+      </c>
+      <c r="E36" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="6">
-        <f>C32*D32</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3">
-        <v>8</v>
-      </c>
-      <c r="E33" s="19">
-        <f>C33*D33</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2">
-        <v>24</v>
-      </c>
-      <c r="E34" s="6">
-        <f>C34*D34</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" s="13"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="17">
-        <v>3.3333000000000002E-2</v>
-      </c>
-      <c r="E35" s="19">
-        <f>C35*D35</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2">
-        <v>24</v>
-      </c>
-      <c r="E36" s="6">
-        <f>C36*D36</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3">
-        <v>3</v>
-      </c>
-      <c r="E37" s="19">
-        <f>C37*D37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2">
-        <v>3</v>
-      </c>
-      <c r="E38" s="6">
-        <f>C38*D38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3">
+        <v>11</v>
+      </c>
+      <c r="E40" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E41" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="19" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="20">
         <v>10</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3">
-        <v>4</v>
-      </c>
-      <c r="E39" s="19">
-        <f>C39*D39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2">
-        <v>6</v>
-      </c>
-      <c r="E40" s="6">
-        <f>C40*D40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3">
-        <v>11</v>
-      </c>
-      <c r="E41" s="19">
-        <f>C41*D41</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E42" s="6">
-        <f>C42*D42</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3">
-        <v>16</v>
-      </c>
-      <c r="E43" s="19">
-        <f>C43*D43</f>
-        <v>0</v>
       </c>
       <c r="H43" s="4"/>
     </row>
@@ -1269,7 +1380,6 @@
         <f>C44*D44</f>
         <v>0</v>
       </c>
-      <c r="H44" s="4"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
@@ -1277,7 +1387,7 @@
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E45" s="19">
         <f>C45*D45</f>
@@ -1336,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>22</v>
       </c>
@@ -1344,52 +1454,96 @@
       <c r="D50" s="2">
         <v>0.45</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="20">
         <f>C50*D50</f>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="16" t="s">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51">
+        <v>24</v>
+      </c>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C55" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E55" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="6" t="s">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6">
         <v>0.2</v>
       </c>
-      <c r="E52" s="6">
-        <f>C52*D52</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F53" s="1"/>
+      <c r="E56" s="6">
+        <f>C56*D56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B29:E29"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010066D218312EEFFB44B3AF247528FBB131" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ccc4f0ab89792f9a650c27bb72203c11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4" xmlns:ns4="3c5defa8-09be-4c3a-a4a9-ac5e1b24444a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="861d577b163440ace70c5cf3b6c0985b" ns3:_="" ns4:_="">
     <xsd:import namespace="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
@@ -1592,22 +1746,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00DDAAC6-A24B-4B3D-90CD-175146BB33AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
+    <ds:schemaRef ds:uri="3c5defa8-09be-4c3a-a4a9-ac5e1b24444a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431DF8FC-5839-4D38-ABE3-D0FFCABAC244}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3ADD7B8-D51B-4A1D-906B-290B8C293B98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1624,29 +1788,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431DF8FC-5839-4D38-ABE3-D0FFCABAC244}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00DDAAC6-A24B-4B3D-90CD-175146BB33AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
-    <ds:schemaRef ds:uri="3c5defa8-09be-4c3a-a4a9-ac5e1b24444a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Recherche/Verbraucher_Liste.xlsx
+++ b/Recherche/Verbraucher_Liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Recherche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4613B0FF-5FC5-4BC5-AE69-50AA97A9B36B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3643FB-4134-4B6A-94AD-216EB7AC4146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A5713B9-7BDF-4B08-B13D-A1629057CF83}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
   <si>
     <t>Berechnungen</t>
   </si>
@@ -207,13 +207,19 @@
     <t>Angenommene Spannung 13,2</t>
   </si>
   <si>
-    <t>Spannung 11,5-11,8</t>
-  </si>
-  <si>
     <t>bei 10m kette ausprobieren und auf 50m hochrechnen</t>
   </si>
   <si>
-    <t>3.8L/stunde leerlauf 1500U ergeben bei ca 80%füllgrad ca 120A und bei 90% 40A und bei 98% 10A</t>
+    <t>ziagt Spannung 11,5-11,8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messen bei baterie vorne </t>
+  </si>
+  <si>
+    <t>3.8L/stunde leerlauf 1500U ergeben bei ca 80%füllgrad der Baterie ca 120A und bei 90% 40A und bei 98% 10A</t>
+  </si>
+  <si>
+    <t>Wasserpumpe BB koje hinten oben rechts</t>
   </si>
 </sst>
 </file>
@@ -416,14 +422,14 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -738,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF31DFDF-97B0-4F3A-8875-BFBD65204E48}">
-  <dimension ref="B1:J64"/>
+  <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,12 +764,12 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
@@ -859,6 +865,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
       <c r="I7" s="12" t="s">
         <v>25</v>
       </c>
@@ -1089,29 +1098,29 @@
       <c r="B23" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="22">
         <v>0.1</v>
       </c>
       <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" t="s">
         <v>50</v>
       </c>
-      <c r="H23" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C24">
         <v>80</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="22">
         <v>0.16666600000000001</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="H24" t="s">
-        <v>49</v>
+      <c r="I24" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1144,12 +1153,12 @@
     </row>
     <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="5" t="s">
         <v>34</v>
       </c>
@@ -1181,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="E31" s="6">
-        <f t="shared" ref="E31:E49" si="1">C31*D31</f>
+        <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
       <c r="I31" s="15" t="s">
@@ -1366,7 +1375,6 @@
       <c r="D43" s="20">
         <v>10</v>
       </c>
-      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
@@ -1377,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="6">
-        <f>C44*D44</f>
+        <f t="shared" ref="E44:E50" si="2">C44*D44</f>
         <v>0</v>
       </c>
     </row>
@@ -1390,7 +1398,7 @@
         <v>2</v>
       </c>
       <c r="E45" s="19">
-        <f>C45*D45</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1398,26 +1406,30 @@
       <c r="B46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2">
+        <v>12</v>
+      </c>
       <c r="D46" s="18">
         <v>0.214</v>
       </c>
       <c r="E46" s="6">
-        <f>C46*D46</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.5680000000000001</v>
       </c>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="2">
+        <v>12</v>
+      </c>
       <c r="D47" s="3">
         <v>1</v>
       </c>
       <c r="E47" s="19">
-        <f>C47*D47</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
@@ -1429,7 +1441,7 @@
         <v>1.5</v>
       </c>
       <c r="E48" s="6">
-        <f>C48*D48</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1442,7 +1454,7 @@
         <v>8.3333329999999997E-2</v>
       </c>
       <c r="E49" s="19">
-        <f>C49*D49</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1455,12 +1467,12 @@
         <v>0.45</v>
       </c>
       <c r="E50" s="20">
-        <f>C50*D50</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="21" t="s">
         <v>36</v>
       </c>
       <c r="D51">
@@ -1478,7 +1490,7 @@
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="21" t="s">
         <v>47</v>
       </c>
       <c r="D53">
@@ -1515,7 +1527,12 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1529,21 +1546,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010066D218312EEFFB44B3AF247528FBB131" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ccc4f0ab89792f9a650c27bb72203c11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4" xmlns:ns4="3c5defa8-09be-4c3a-a4a9-ac5e1b24444a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="861d577b163440ace70c5cf3b6c0985b" ns3:_="" ns4:_="">
     <xsd:import namespace="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
@@ -1746,32 +1748,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00DDAAC6-A24B-4B3D-90CD-175146BB33AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
-    <ds:schemaRef ds:uri="3c5defa8-09be-4c3a-a4a9-ac5e1b24444a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431DF8FC-5839-4D38-ABE3-D0FFCABAC244}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3ADD7B8-D51B-4A1D-906B-290B8C293B98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1788,4 +1780,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431DF8FC-5839-4D38-ABE3-D0FFCABAC244}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00DDAAC6-A24B-4B3D-90CD-175146BB33AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
+    <ds:schemaRef ds:uri="3c5defa8-09be-4c3a-a4a9-ac5e1b24444a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Recherche/Verbraucher_Liste.xlsx
+++ b/Recherche/Verbraucher_Liste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Recherche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Recherche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3643FB-4134-4B6A-94AD-216EB7AC4146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A07CFE-DCC0-4B24-9372-CC6420F3B6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A5713B9-7BDF-4B08-B13D-A1629057CF83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A5713B9-7BDF-4B08-B13D-A1629057CF83}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
   <si>
     <t>Berechnungen</t>
   </si>
@@ -192,15 +192,6 @@
     <t>Heizung dauerbetrieb</t>
   </si>
   <si>
-    <t>Heizung erstes starten</t>
-  </si>
-  <si>
-    <t>zweimal starten</t>
-  </si>
-  <si>
-    <t>zeit anschauen</t>
-  </si>
-  <si>
     <t>Segelwinch</t>
   </si>
   <si>
@@ -220,6 +211,12 @@
   </si>
   <si>
     <t>Wasserpumpe BB koje hinten oben rechts</t>
+  </si>
+  <si>
+    <t>Autopilot</t>
+  </si>
+  <si>
+    <t>Autopilot Standby</t>
   </si>
 </sst>
 </file>
@@ -396,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -430,6 +427,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -746,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF31DFDF-97B0-4F3A-8875-BFBD65204E48}">
   <dimension ref="B1:J67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,18 +768,18 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="G2" s="7" cm="1">
-        <f t="array" ref="G2">SUM(E4:E22-E27)</f>
-        <v>26.568000000000001</v>
+        <f t="array" ref="G2">SUM(E4:E22-E30)</f>
+        <v>544.37444000000005</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -799,16 +803,18 @@
       <c r="B4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <v>3.5</v>
+      </c>
       <c r="D4" s="6">
         <v>8</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" ref="E4:E22" si="0">C4*D4</f>
-        <v>0</v>
+        <f t="shared" ref="E4:E23" si="0">C4*D4</f>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>0</v>
@@ -821,13 +827,15 @@
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3">
+        <v>4.5</v>
+      </c>
       <c r="D5" s="3">
         <v>8</v>
       </c>
       <c r="E5" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>2</v>
@@ -840,13 +848,15 @@
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>19</v>
+      </c>
       <c r="D6" s="2">
         <v>12</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>1</v>
@@ -857,16 +867,18 @@
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3">
+        <v>680</v>
+      </c>
       <c r="D7" s="17">
         <v>3.3333000000000002E-2</v>
       </c>
       <c r="E7" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22.666440000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>25</v>
@@ -877,13 +889,15 @@
       <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
       <c r="D8" s="2">
         <v>24</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>26</v>
@@ -894,13 +908,15 @@
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3">
+        <v>3.5</v>
+      </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -908,13 +924,15 @@
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
       <c r="D10" s="2">
         <v>2</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -922,13 +940,15 @@
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3">
+        <v>0.4</v>
+      </c>
       <c r="D11" s="3">
         <v>3</v>
       </c>
       <c r="E11" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="I11" t="s">
         <v>35</v>
@@ -938,39 +958,45 @@
       <c r="B12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>9.5</v>
+      </c>
       <c r="D12" s="2">
         <v>3</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3">
+        <v>0.2</v>
+      </c>
       <c r="D13" s="3">
         <v>11</v>
       </c>
       <c r="E13" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
       <c r="D14" s="2">
         <v>0.1</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -978,7 +1004,9 @@
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
@@ -992,13 +1020,15 @@
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
       <c r="D16" s="2">
         <v>5</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -1006,13 +1036,15 @@
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3">
+        <v>7.6</v>
+      </c>
       <c r="D17" s="3">
         <v>7</v>
       </c>
       <c r="E17" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53.199999999999996</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -1056,39 +1088,45 @@
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="2">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="D20" s="2">
         <v>1.5</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3000000000000003</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3">
+        <v>17.5</v>
+      </c>
       <c r="D21" s="3">
         <v>0.04</v>
       </c>
       <c r="E21" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.70000000000000007</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2">
+        <v>5.2</v>
+      </c>
       <c r="D22" s="2">
         <v>0.45</v>
       </c>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3400000000000003</v>
       </c>
       <c r="F22" t="s">
         <v>42</v>
@@ -1098,19 +1136,26 @@
       <c r="B23" s="20" t="s">
         <v>37</v>
       </c>
+      <c r="C23" s="21">
+        <v>110</v>
+      </c>
       <c r="D23" s="22">
         <v>0.1</v>
       </c>
+      <c r="E23" s="27">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
       <c r="F23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <v>80</v>
@@ -1118,427 +1163,450 @@
       <c r="D24" s="22">
         <v>0.16666600000000001</v>
       </c>
+      <c r="E24" s="20">
+        <f>D24*C24</f>
+        <v>13.33328</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="I24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E27" s="6">
-        <f>C27*D27</f>
-        <v>0</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" ref="E25:E26" si="1">D25*C25</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>5.7</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="20">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E30" s="6">
+        <f>C30*D30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="5" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G29" s="7" t="e" cm="1">
-        <f t="array" ref="G29">SUM(E31:E50-E56)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
+      <c r="G32" s="7" cm="1">
+        <f t="array" ref="G32">SUM(E34:E53-E59)</f>
+        <v>14.568</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="6" t="s">
+    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6">
         <v>7</v>
       </c>
-      <c r="E31" s="6">
-        <f t="shared" ref="E31:E42" si="1">C31*D31</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" s="15" t="s">
+      <c r="E34" s="6">
+        <f t="shared" ref="E34:E45" si="2">C34*D34</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3">
         <v>7</v>
       </c>
-      <c r="E32" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="14" t="s">
+      <c r="E35" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J35" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="2" t="s">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
         <v>10</v>
       </c>
-      <c r="E33" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="13" t="s">
+      <c r="E36" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="J33" s="13"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="17">
+      <c r="C37" s="3"/>
+      <c r="D37" s="17">
         <v>3.3333000000000002E-2</v>
       </c>
-      <c r="E34" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="12" t="s">
+      <c r="E37" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2">
         <v>24</v>
       </c>
-      <c r="E35" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="13" t="s">
+      <c r="E38" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J35" s="13"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3">
         <v>3</v>
       </c>
-      <c r="E36" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
+      <c r="E39" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2">
         <v>3</v>
       </c>
-      <c r="E37" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+      <c r="E40" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3">
         <v>4</v>
       </c>
-      <c r="E38" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
+      <c r="E41" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3">
         <v>11</v>
       </c>
-      <c r="E40" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E41" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E42" s="19" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="20">
-        <v>10</v>
-      </c>
+      <c r="E43" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="4"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="19"/>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2">
         <v>3</v>
       </c>
-      <c r="E44" s="6">
-        <f t="shared" ref="E44:E50" si="2">C44*D44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+      <c r="E47" s="6">
+        <f t="shared" ref="E47:E53" si="3">C47*D47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3">
         <v>2</v>
       </c>
-      <c r="E45" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+      <c r="E48" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C49" s="2">
         <v>12</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D49" s="18">
         <v>0.214</v>
       </c>
-      <c r="E46" s="6">
-        <f t="shared" si="2"/>
+      <c r="E49" s="6">
+        <f t="shared" si="3"/>
         <v>2.5680000000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C50" s="2">
         <v>12</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D50" s="3">
         <v>1</v>
       </c>
-      <c r="E47" s="19">
-        <f t="shared" si="2"/>
+      <c r="E50" s="19">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2">
         <v>1.5</v>
       </c>
-      <c r="E48" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+      <c r="E51" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="17">
+      <c r="C52" s="3"/>
+      <c r="D52" s="17">
         <v>8.3333329999999997E-2</v>
       </c>
-      <c r="E49" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+      <c r="E52" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2">
         <v>0.45</v>
       </c>
-      <c r="E50" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="21" t="s">
+      <c r="E53" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D51">
+      <c r="D54">
         <v>24</v>
       </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="20" t="s">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D52">
+      <c r="D55">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D53">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56">
         <v>0.05</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="16" t="s">
+    <row r="57" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="16" t="s">
+      <c r="C58" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E58" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="6" t="s">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6">
+      <c r="C59" s="6"/>
+      <c r="D59" s="6">
         <v>0.2</v>
       </c>
-      <c r="E56" s="6">
-        <f>C56*D56</f>
+      <c r="E59" s="6">
+        <f>C59*D59</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1546,6 +1614,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010066D218312EEFFB44B3AF247528FBB131" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ccc4f0ab89792f9a650c27bb72203c11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4" xmlns:ns4="3c5defa8-09be-4c3a-a4a9-ac5e1b24444a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="861d577b163440ace70c5cf3b6c0985b" ns3:_="" ns4:_="">
     <xsd:import namespace="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
@@ -1748,22 +1831,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00DDAAC6-A24B-4B3D-90CD-175146BB33AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
+    <ds:schemaRef ds:uri="3c5defa8-09be-4c3a-a4a9-ac5e1b24444a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431DF8FC-5839-4D38-ABE3-D0FFCABAC244}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3ADD7B8-D51B-4A1D-906B-290B8C293B98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1780,29 +1873,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431DF8FC-5839-4D38-ABE3-D0FFCABAC244}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00DDAAC6-A24B-4B3D-90CD-175146BB33AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
-    <ds:schemaRef ds:uri="3c5defa8-09be-4c3a-a4a9-ac5e1b24444a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Recherche/Verbraucher_Liste.xlsx
+++ b/Recherche/Verbraucher_Liste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Recherche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Recherche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A07CFE-DCC0-4B24-9372-CC6420F3B6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A180854-384E-4379-AE6D-9C23AB1BCD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A5713B9-7BDF-4B08-B13D-A1629057CF83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A5713B9-7BDF-4B08-B13D-A1629057CF83}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>Berechnungen</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Bugstrahlruder</t>
   </si>
   <si>
-    <t>Konverter</t>
-  </si>
-  <si>
     <t>Ankerlicht</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>Unterwasserlicht</t>
   </si>
   <si>
-    <t>Bordlicht</t>
-  </si>
-  <si>
     <t>Beleuchtung innen haupt</t>
   </si>
   <si>
@@ -168,9 +162,6 @@
     <t>≈von 100% auf 82%/83% pro Tag</t>
   </si>
   <si>
-    <t>Kleinverbraucher</t>
-  </si>
-  <si>
     <t>Ankerwinch</t>
   </si>
   <si>
@@ -189,40 +180,46 @@
     <t xml:space="preserve">bei 60L entnahme </t>
   </si>
   <si>
-    <t>Heizung dauerbetrieb</t>
-  </si>
-  <si>
     <t>Segelwinch</t>
   </si>
   <si>
     <t>Angenommene Spannung 13,2</t>
   </si>
   <si>
-    <t>bei 10m kette ausprobieren und auf 50m hochrechnen</t>
-  </si>
-  <si>
     <t>ziagt Spannung 11,5-11,8</t>
   </si>
   <si>
-    <t xml:space="preserve">Messen bei baterie vorne </t>
-  </si>
-  <si>
     <t>3.8L/stunde leerlauf 1500U ergeben bei ca 80%füllgrad der Baterie ca 120A und bei 90% 40A und bei 98% 10A</t>
   </si>
   <si>
-    <t>Wasserpumpe BB koje hinten oben rechts</t>
-  </si>
-  <si>
     <t>Autopilot</t>
   </si>
   <si>
     <t>Autopilot Standby</t>
+  </si>
+  <si>
+    <t>Anm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batterie im Bug </t>
+  </si>
+  <si>
+    <t>50m Kette</t>
+  </si>
+  <si>
+    <t>60 Liter ertrag</t>
+  </si>
+  <si>
+    <t>Uhrzeit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -238,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +284,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -389,11 +392,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -420,13 +497,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -434,6 +504,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -449,6 +546,1078 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Sommer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$N$45:$N$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B923-4999-A1E9-BD2FB1ABB2ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Winter</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$O$45:$O$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B923-4999-A1E9-BD2FB1ABB2ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2110585119"/>
+        <c:axId val="2110580127"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2110585119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110580127"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2110580127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2110585119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC063A3A-430B-3070-CB4E-35F2F81477D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -748,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF31DFDF-97B0-4F3A-8875-BFBD65204E48}">
-  <dimension ref="B1:J67"/>
+  <dimension ref="B1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="H30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V36" sqref="V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,6 +1928,7 @@
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.140625" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="63.42578125" bestFit="1" customWidth="1"/>
@@ -769,39 +1939,42 @@
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
+      <c r="F2" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="7" cm="1">
-        <f t="array" ref="G2">SUM(E4:E22-E30)</f>
-        <v>544.37444000000005</v>
+        <f t="array" ref="G2">SUM(E4:E26-E30)</f>
+        <v>598.20271999999989</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>29</v>
+      <c r="F3" s="32" t="s">
+        <v>46</v>
       </c>
       <c r="I3" s="11"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6">
         <v>3.5</v>
@@ -814,7 +1987,7 @@
         <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>0</v>
@@ -825,7 +1998,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
         <v>4.5</v>
@@ -873,21 +2046,21 @@
       <c r="D7" s="17">
         <v>3.3333000000000002E-2</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="35">
         <f t="shared" si="0"/>
         <v>22.666440000000001</v>
       </c>
-      <c r="G7" t="s">
-        <v>48</v>
+      <c r="F7" t="s">
+        <v>47</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -900,13 +2073,13 @@
         <v>96</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J8" s="13"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>3.5</v>
@@ -922,7 +2095,7 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
@@ -938,7 +2111,7 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3">
         <v>0.4</v>
@@ -951,12 +2124,12 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>9.5</v>
@@ -971,7 +2144,7 @@
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3">
         <v>0.2</v>
@@ -986,7 +2159,7 @@
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2">
         <v>12</v>
@@ -1002,7 +2175,7 @@
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="3">
         <v>10</v>
@@ -1018,7 +2191,7 @@
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1034,7 +2207,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="3">
         <v>7.6</v>
@@ -1050,7 +2223,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <v>12</v>
@@ -1058,17 +2231,17 @@
       <c r="D18" s="18">
         <v>0.214</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="34">
         <f t="shared" si="0"/>
         <v>2.5680000000000001</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="3">
         <v>12</v>
@@ -1081,12 +2254,12 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
         <v>2.2000000000000002</v>
@@ -1101,103 +2274,103 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3">
         <v>17.5</v>
       </c>
       <c r="D21" s="3">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E21" s="19">
         <f t="shared" si="0"/>
-        <v>0.70000000000000007</v>
+        <v>0.17500000000000002</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
         <v>5.2</v>
       </c>
       <c r="D22" s="2">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="E22" s="20">
         <f t="shared" si="0"/>
-        <v>2.3400000000000003</v>
+        <v>1.56</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
-        <v>37</v>
+      <c r="B23" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="C23" s="21">
         <v>110</v>
       </c>
-      <c r="D23" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="E23" s="27">
+      <c r="D23" s="27">
+        <v>0.01</v>
+      </c>
+      <c r="E23" s="24">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="28">
         <v>80</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D24" s="29">
         <v>0.16666600000000001</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="33">
         <f>D24*C24</f>
         <v>13.33328</v>
       </c>
       <c r="F24" s="1"/>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="30">
         <v>7</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="30">
         <v>5</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="30">
         <f t="shared" ref="E25:E26" si="1">D25*C25</f>
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="28">
         <v>5.7</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="28">
         <v>1</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="28">
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
@@ -1205,21 +2378,21 @@
     <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6">
@@ -1232,45 +2405,47 @@
     </row>
     <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
+      <c r="B32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G32" s="7" cm="1">
-        <f t="array" ref="G32">SUM(E34:E53-E59)</f>
-        <v>14.568</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="array" ref="G32">SUM(E34:E56-E59)</f>
+        <v>622.71777331600003</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="C34" s="6">
+        <v>3.5</v>
+      </c>
       <c r="D34" s="6">
         <v>7</v>
       </c>
       <c r="E34" s="6">
         <f t="shared" ref="E34:E45" si="2">C34*D34</f>
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>0</v>
@@ -1279,17 +2454,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C35" s="3">
+        <v>4.5</v>
+      </c>
       <c r="D35" s="3">
         <v>7</v>
       </c>
       <c r="E35" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>2</v>
@@ -1298,292 +2475,506 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2">
+        <v>19</v>
+      </c>
       <c r="D36" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>1</v>
       </c>
       <c r="J36" s="13"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3">
+        <v>680</v>
+      </c>
       <c r="D37" s="17">
         <v>3.3333000000000002E-2</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="35">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>22.666440000000001</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
       <c r="D38" s="2">
         <v>24</v>
       </c>
       <c r="E38" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J38" s="13"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="C39" s="3">
+        <v>3.5</v>
+      </c>
       <c r="D39" s="3">
         <v>3</v>
       </c>
       <c r="E39" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
       <c r="D40" s="2">
         <v>3</v>
       </c>
       <c r="E40" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.4</v>
+      </c>
       <c r="D41" s="3">
         <v>4</v>
       </c>
       <c r="E41" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9.5</v>
+      </c>
       <c r="D42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.2</v>
+      </c>
       <c r="D43" s="3">
         <v>11</v>
       </c>
       <c r="E43" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H43" s="4"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2">
+        <v>36</v>
+      </c>
+      <c r="C44" s="2">
+        <v>12</v>
+      </c>
+      <c r="D44" s="41">
         <v>0.1</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="19"/>
+      <c r="M44" t="s">
+        <v>50</v>
+      </c>
+      <c r="N44" t="s">
+        <v>30</v>
+      </c>
+      <c r="O44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="36">
+        <v>10</v>
+      </c>
+      <c r="D45" s="42">
+        <v>8</v>
+      </c>
+      <c r="E45" s="30">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
       <c r="H45" s="4"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D46" s="20">
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>23</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+      <c r="C46" s="37">
+        <v>1</v>
+      </c>
+      <c r="D46" s="43">
+        <v>10</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2">
+      <c r="C47" s="36">
+        <v>7.6</v>
+      </c>
+      <c r="D47" s="30">
         <v>3</v>
       </c>
-      <c r="E47" s="6">
-        <f t="shared" ref="E47:E53" si="3">C47*D47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
+      <c r="E47" s="30">
+        <f t="shared" ref="E47:E56" si="3">C47*D47</f>
+        <v>22.799999999999997</v>
+      </c>
+      <c r="M47">
+        <v>3</v>
+      </c>
+      <c r="N47">
+        <v>7</v>
+      </c>
+      <c r="O47">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="37">
         <v>12</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3">
+      <c r="D48" s="28">
         <v>2</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="28">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="2">
+        <v>24</v>
+      </c>
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48">
+        <v>4</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="36">
         <v>12</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="44">
         <v>0.214</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="45">
         <f t="shared" si="3"/>
         <v>2.5680000000000001</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="3" t="s">
+      <c r="F49" t="s">
+        <v>49</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="M49">
+        <v>5</v>
+      </c>
+      <c r="N49">
+        <v>7</v>
+      </c>
+      <c r="O49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D50" s="28">
+        <v>1</v>
+      </c>
+      <c r="E50" s="28">
+        <f t="shared" si="3"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M50">
+        <v>6</v>
+      </c>
+      <c r="N50">
+        <v>6</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="36">
+        <v>17.5</v>
+      </c>
+      <c r="D51" s="30">
+        <v>1.5</v>
+      </c>
+      <c r="E51" s="45">
+        <f t="shared" si="3"/>
+        <v>26.25</v>
+      </c>
+      <c r="M51">
+        <v>7</v>
+      </c>
+      <c r="N51">
+        <v>5</v>
+      </c>
+      <c r="O51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C52" s="37">
+        <v>5.2</v>
+      </c>
+      <c r="D52" s="29">
+        <v>8.3333329999999997E-2</v>
+      </c>
+      <c r="E52" s="33">
+        <f t="shared" si="3"/>
+        <v>0.43333331600000002</v>
+      </c>
+      <c r="F52" t="s">
+        <v>39</v>
+      </c>
+      <c r="M52">
+        <v>8</v>
+      </c>
+      <c r="N52">
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="38">
+        <v>110</v>
+      </c>
+      <c r="D53" s="30">
+        <v>0.45</v>
+      </c>
+      <c r="E53" s="30">
+        <f t="shared" si="3"/>
+        <v>49.5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>48</v>
+      </c>
+      <c r="M53">
+        <v>9</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54" s="39">
+        <v>80</v>
+      </c>
+      <c r="D54" s="28">
+        <v>0.17</v>
+      </c>
+      <c r="E54" s="28">
+        <f>C54*D54</f>
+        <v>13.600000000000001</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="M54">
+        <v>10</v>
+      </c>
+      <c r="N54">
+        <v>5</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="40">
+        <v>7</v>
+      </c>
+      <c r="D55" s="30">
+        <v>5</v>
+      </c>
+      <c r="E55" s="30">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="M55">
+        <v>11</v>
+      </c>
+      <c r="N55">
+        <v>5</v>
+      </c>
+      <c r="O55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="39">
+        <v>5.7</v>
+      </c>
+      <c r="D56" s="28">
+        <v>1</v>
+      </c>
+      <c r="E56" s="28">
+        <f t="shared" si="3"/>
+        <v>5.7</v>
+      </c>
+      <c r="M56">
         <v>12</v>
       </c>
-      <c r="D50" s="3">
-        <v>1</v>
-      </c>
-      <c r="E50" s="19">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="E51" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="17">
-        <v>8.3333329999999997E-2</v>
-      </c>
-      <c r="E52" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="E53" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54">
-        <v>24</v>
-      </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D55">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D56">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N56">
+        <v>7</v>
+      </c>
+      <c r="O56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <v>13</v>
+      </c>
+      <c r="N57">
+        <v>7</v>
+      </c>
+      <c r="O57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="M58">
+        <v>14</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="6" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6">
@@ -1593,15 +2984,116 @@
         <f>C59*D59</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>15</v>
+      </c>
+      <c r="N59">
+        <v>5</v>
+      </c>
+      <c r="O59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>16</v>
+      </c>
+      <c r="N60">
+        <v>9</v>
+      </c>
+      <c r="O60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>17</v>
+      </c>
+      <c r="N61">
+        <v>7</v>
+      </c>
+      <c r="O61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>18</v>
+      </c>
+      <c r="N62">
+        <v>8</v>
+      </c>
+      <c r="O62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>19</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="M64">
+        <v>20</v>
+      </c>
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>21</v>
+      </c>
+      <c r="N65">
+        <v>6</v>
+      </c>
+      <c r="O65">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>22</v>
+      </c>
+      <c r="N66">
+        <v>57</v>
+      </c>
+      <c r="O66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>23</v>
+      </c>
+      <c r="N67">
+        <v>8</v>
+      </c>
+      <c r="O67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>24</v>
+      </c>
+      <c r="N68">
+        <v>8</v>
+      </c>
+      <c r="O68">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1610,25 +3102,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010066D218312EEFFB44B3AF247528FBB131" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ccc4f0ab89792f9a650c27bb72203c11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4" xmlns:ns4="3c5defa8-09be-4c3a-a4a9-ac5e1b24444a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="861d577b163440ace70c5cf3b6c0985b" ns3:_="" ns4:_="">
     <xsd:import namespace="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
@@ -1831,32 +3309,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00DDAAC6-A24B-4B3D-90CD-175146BB33AC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
-    <ds:schemaRef ds:uri="3c5defa8-09be-4c3a-a4a9-ac5e1b24444a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431DF8FC-5839-4D38-ABE3-D0FFCABAC244}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3ADD7B8-D51B-4A1D-906B-290B8C293B98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1873,4 +3341,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431DF8FC-5839-4D38-ABE3-D0FFCABAC244}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00DDAAC6-A24B-4B3D-90CD-175146BB33AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
+    <ds:schemaRef ds:uri="3c5defa8-09be-4c3a-a4a9-ac5e1b24444a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Recherche/Verbraucher_Liste.xlsx
+++ b/Recherche/Verbraucher_Liste.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Recherche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Recherche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A180854-384E-4379-AE6D-9C23AB1BCD25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F709A3EB-B987-4024-A6C2-8DAF79782250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A5713B9-7BDF-4B08-B13D-A1629057CF83}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
   <si>
     <t>Berechnungen</t>
   </si>
@@ -210,7 +210,13 @@
     <t>60 Liter ertrag</t>
   </si>
   <si>
-    <t>Uhrzeit</t>
+    <t>Herbst</t>
+  </si>
+  <si>
+    <t>Frühling</t>
+  </si>
+  <si>
+    <t>Tag</t>
   </si>
 </sst>
 </file>
@@ -218,7 +224,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -470,12 +476,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -486,7 +490,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -504,12 +507,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -518,9 +515,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
@@ -530,7 +527,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -563,6 +566,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Amper</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> am Tag</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -595,242 +628,78 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Sommer</c:v>
+            <c:strRef>
+              <c:f>Tabelle1!$S$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tag</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tabelle1!$T$43:$W$43</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Frühling</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sommer</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Herbst</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Winter</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$N$45:$N$68</c:f>
+              <c:f>Tabelle1!$T$44:$W$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>611</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>605</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8</c:v>
+                  <c:v>622</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B923-4999-A1E9-BD2FB1ABB2ED}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Winter</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$O$45:$O$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B923-4999-A1E9-BD2FB1ABB2ED}"/>
+              <c16:uniqueId val="{00000000-1E36-4C15-A4F9-B8E7D816B5BC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -842,18 +711,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="2110585119"/>
-        <c:axId val="2110580127"/>
-      </c:lineChart>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="388900544"/>
+        <c:axId val="388900960"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="2110585119"/>
+        <c:axId val="388900544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -890,7 +760,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110580127"/>
+        <c:crossAx val="388900960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -898,7 +768,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110580127"/>
+        <c:axId val="388900960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +819,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2110585119"/>
+        <c:crossAx val="388900544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -961,37 +831,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1077,7 +916,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1584,22 +1423,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:colOff>535880</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>21932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>535880</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>73318</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
+        <xdr:cNvPr id="4" name="Diagramm 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC063A3A-430B-3070-CB4E-35F2F81477D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31440D4A-2BBC-C167-350E-E90DF22BA8BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1917,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF31DFDF-97B0-4F3A-8875-BFBD65204E48}">
-  <dimension ref="B1:O68"/>
+  <dimension ref="B1:W64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,188 +1777,183 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="31" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="7" cm="1">
+      <c r="G2" s="5" cm="1">
         <f t="array" ref="G2">SUM(E4:E26-E30)</f>
         <v>598.20271999999989</v>
       </c>
-      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>3.5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="4">
         <v>8</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <f t="shared" ref="E4:E23" si="0">C4*D4</f>
         <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>4.5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>8</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>19</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>12</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J6" s="13"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>680</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>3.3333000000000002E-2</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="30">
         <f t="shared" si="0"/>
         <v>22.666440000000001</v>
       </c>
       <c r="F7" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>24</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="13"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>3.5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>0.4</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="16">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
@@ -2128,110 +1962,106 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>9.5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>28.5</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>0.2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>11</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="16">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>12</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>0.1</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="J14" s="4"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>0</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>5</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>7.6</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>7</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="16">
         <f t="shared" si="0"/>
         <v>53.199999999999996</v>
       </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>12</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>0.214</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="29">
         <f t="shared" si="0"/>
         <v>2.5680000000000001</v>
       </c>
@@ -2239,17 +2069,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>12</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -2257,47 +2087,47 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="1">
         <v>1.5</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>3.3000000000000003</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>17.5</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>0.01</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="16">
         <f t="shared" si="0"/>
         <v>0.17500000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>5.2</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>0.3</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="17">
         <f t="shared" si="0"/>
         <v>1.56</v>
       </c>
@@ -2305,17 +2135,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="18">
         <v>110</v>
       </c>
-      <c r="D23" s="27">
+      <c r="D23" s="22">
         <v>0.01</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="21">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
@@ -2326,774 +2156,551 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="23">
         <v>80</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="24">
         <v>0.16666600000000001</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="28">
         <f>D24*C24</f>
         <v>13.33328</v>
       </c>
-      <c r="F24" s="1"/>
       <c r="I24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="30" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="25">
         <v>7</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="25">
         <v>5</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="25">
         <f t="shared" ref="E25:E26" si="1">D25*C25</f>
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="28" t="s">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="23">
         <v>5.7</v>
       </c>
-      <c r="D26" s="28">
+      <c r="D26" s="23">
         <v>1</v>
       </c>
-      <c r="E26" s="28">
+      <c r="E26" s="23">
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
+    <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4">
         <v>0.2</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="4">
         <f>C30*D30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="22" t="s">
+    <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="5" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="7" cm="1">
+      <c r="G32" s="5" cm="1">
         <f t="array" ref="G32">SUM(E34:E56-E59)</f>
         <v>622.71777331600003</v>
       </c>
     </row>
-    <row r="33" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="6" t="s">
+    <row r="34" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="4">
         <v>3.5</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="4">
         <v>7</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="4">
         <f t="shared" ref="E34:E45" si="2">C34*D34</f>
         <v>24.5</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="I34" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="J34" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>4.5</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>7</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="16">
         <f t="shared" si="2"/>
         <v>31.5</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="2" t="s">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>19</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="1">
         <v>8</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="4">
         <f t="shared" si="2"/>
         <v>152</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="I36" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>680</v>
       </c>
-      <c r="D37" s="17">
+      <c r="D37" s="14">
         <v>3.3333000000000002E-2</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="30">
         <f t="shared" si="2"/>
         <v>22.666440000000001</v>
       </c>
       <c r="F37" t="s">
         <v>47</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>4</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="1">
         <v>24</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="4">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J38" s="13"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>3.5</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>3</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="16">
         <f t="shared" si="2"/>
         <v>10.5</v>
       </c>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>3</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D40" s="1">
         <v>3</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>0.4</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>4</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="16">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>9.5</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="4">
         <f t="shared" si="2"/>
         <v>9.5</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <v>0.2</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <v>11</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="16">
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
+      <c r="T43" t="s">
+        <v>51</v>
+      </c>
+      <c r="U43" t="s">
+        <v>30</v>
+      </c>
+      <c r="V43" t="s">
+        <v>50</v>
+      </c>
+      <c r="W43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>12</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="36">
         <v>0.1</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="17">
         <f t="shared" si="2"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="H44" s="4"/>
-      <c r="M44" t="s">
-        <v>50</v>
-      </c>
-      <c r="N44" t="s">
-        <v>30</v>
-      </c>
-      <c r="O44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="3" t="s">
+      <c r="S44" t="s">
+        <v>52</v>
+      </c>
+      <c r="T44">
+        <v>611</v>
+      </c>
+      <c r="U44">
+        <v>598</v>
+      </c>
+      <c r="V44">
+        <v>605</v>
+      </c>
+      <c r="W44">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="31">
         <v>10</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45" s="37">
         <v>8</v>
       </c>
-      <c r="E45" s="30">
+      <c r="E45" s="25">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="H45" s="4"/>
-      <c r="M45">
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="32">
         <v>1</v>
       </c>
-      <c r="N45">
-        <v>23</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
+      <c r="D46" s="38">
         <v>10</v>
       </c>
-      <c r="C46" s="37">
-        <v>1</v>
-      </c>
-      <c r="D46" s="43">
-        <v>10</v>
-      </c>
-      <c r="E46" s="28"/>
-      <c r="M46">
-        <v>2</v>
-      </c>
-      <c r="N46">
-        <v>4</v>
-      </c>
-      <c r="O46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="s">
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="31">
         <v>7.6</v>
       </c>
-      <c r="D47" s="30">
+      <c r="D47" s="25">
         <v>3</v>
       </c>
-      <c r="E47" s="30">
+      <c r="E47" s="25">
         <f t="shared" ref="E47:E56" si="3">C47*D47</f>
         <v>22.799999999999997</v>
       </c>
-      <c r="M47">
-        <v>3</v>
-      </c>
-      <c r="N47">
-        <v>7</v>
-      </c>
-      <c r="O47">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="32">
         <v>12</v>
       </c>
-      <c r="D48" s="28">
+      <c r="D48" s="23">
         <v>2</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="23">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="F48" t="s">
         <v>37</v>
       </c>
-      <c r="M48">
-        <v>4</v>
-      </c>
-      <c r="N48">
-        <v>3</v>
-      </c>
-      <c r="O48">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="36">
+      <c r="C49" s="31">
         <v>12</v>
       </c>
-      <c r="D49" s="44">
+      <c r="D49" s="39">
         <v>0.214</v>
       </c>
-      <c r="E49" s="45">
+      <c r="E49" s="40">
         <f t="shared" si="3"/>
         <v>2.5680000000000001</v>
       </c>
       <c r="F49" t="s">
         <v>49</v>
       </c>
-      <c r="G49" s="4"/>
-      <c r="M49">
-        <v>5</v>
-      </c>
-      <c r="N49">
-        <v>7</v>
-      </c>
-      <c r="O49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="2" t="s">
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="32">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D50" s="28">
+      <c r="D50" s="23">
         <v>1</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="23">
         <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="M50">
-        <v>6</v>
-      </c>
-      <c r="N50">
-        <v>6</v>
-      </c>
-      <c r="O50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="36">
+      <c r="C51" s="31">
         <v>17.5</v>
       </c>
-      <c r="D51" s="30">
+      <c r="D51" s="25">
         <v>1.5</v>
       </c>
-      <c r="E51" s="45">
+      <c r="E51" s="40">
         <f t="shared" si="3"/>
         <v>26.25</v>
       </c>
-      <c r="M51">
-        <v>7</v>
-      </c>
-      <c r="N51">
-        <v>5</v>
-      </c>
-      <c r="O51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="32">
         <v>5.2</v>
       </c>
-      <c r="D52" s="29">
+      <c r="D52" s="24">
         <v>8.3333329999999997E-2</v>
       </c>
-      <c r="E52" s="33">
+      <c r="E52" s="28">
         <f t="shared" si="3"/>
         <v>0.43333331600000002</v>
       </c>
       <c r="F52" t="s">
         <v>39</v>
       </c>
-      <c r="M52">
-        <v>8</v>
-      </c>
-      <c r="N52">
-        <v>5</v>
-      </c>
-      <c r="O52">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B53" s="24" t="s">
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="38">
+      <c r="C53" s="33">
         <v>110</v>
       </c>
-      <c r="D53" s="30">
+      <c r="D53" s="25">
         <v>0.45</v>
       </c>
-      <c r="E53" s="30">
+      <c r="E53" s="25">
         <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
       <c r="F53" t="s">
         <v>48</v>
       </c>
-      <c r="M53">
-        <v>9</v>
-      </c>
-      <c r="N53">
-        <v>3</v>
-      </c>
-      <c r="O53">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="28" t="s">
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="39">
+      <c r="C54" s="34">
         <v>80</v>
       </c>
-      <c r="D54" s="28">
+      <c r="D54" s="23">
         <v>0.17</v>
       </c>
-      <c r="E54" s="28">
+      <c r="E54" s="23">
         <f>C54*D54</f>
         <v>13.600000000000001</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="M54">
-        <v>10</v>
-      </c>
-      <c r="N54">
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="35">
+        <v>7</v>
+      </c>
+      <c r="D55" s="25">
         <v>5</v>
       </c>
-      <c r="O54">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B55" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="40">
-        <v>7</v>
-      </c>
-      <c r="D55" s="30">
-        <v>5</v>
-      </c>
-      <c r="E55" s="30">
+      <c r="E55" s="25">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="M55">
-        <v>11</v>
-      </c>
-      <c r="N55">
-        <v>5</v>
-      </c>
-      <c r="O55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="28" t="s">
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="39">
+      <c r="C56" s="34">
         <v>5.7</v>
       </c>
-      <c r="D56" s="28">
+      <c r="D56" s="23">
         <v>1</v>
       </c>
-      <c r="E56" s="28">
+      <c r="E56" s="23">
         <f t="shared" si="3"/>
         <v>5.7</v>
       </c>
-      <c r="M56">
-        <v>12</v>
-      </c>
-      <c r="N56">
-        <v>7</v>
-      </c>
-      <c r="O56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M57">
-        <v>13</v>
-      </c>
-      <c r="N57">
-        <v>7</v>
-      </c>
-      <c r="O57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="16" t="s">
+    </row>
+    <row r="57" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C58" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="E58" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M58">
-        <v>14</v>
-      </c>
-      <c r="N58">
-        <v>2</v>
-      </c>
-      <c r="O58">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4">
         <v>0.2</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="4">
         <f>C59*D59</f>
         <v>0</v>
       </c>
-      <c r="M59">
-        <v>15</v>
-      </c>
-      <c r="N59">
-        <v>5</v>
-      </c>
-      <c r="O59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M60">
-        <v>16</v>
-      </c>
-      <c r="N60">
-        <v>9</v>
-      </c>
-      <c r="O60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M61">
-        <v>17</v>
-      </c>
-      <c r="N61">
-        <v>7</v>
-      </c>
-      <c r="O61">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M62">
-        <v>18</v>
-      </c>
-      <c r="N62">
-        <v>8</v>
-      </c>
-      <c r="O62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="M63">
-        <v>19</v>
-      </c>
-      <c r="N63">
-        <v>5</v>
-      </c>
-      <c r="O63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>43</v>
-      </c>
-      <c r="M64">
-        <v>20</v>
-      </c>
-      <c r="N64">
-        <v>3</v>
-      </c>
-      <c r="O64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M65">
-        <v>21</v>
-      </c>
-      <c r="N65">
-        <v>6</v>
-      </c>
-      <c r="O65">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="66" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M66">
-        <v>22</v>
-      </c>
-      <c r="N66">
-        <v>57</v>
-      </c>
-      <c r="O66">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M67">
-        <v>23</v>
-      </c>
-      <c r="N67">
-        <v>8</v>
-      </c>
-      <c r="O67">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="13:15" x14ac:dyDescent="0.25">
-      <c r="M68">
-        <v>24</v>
-      </c>
-      <c r="N68">
-        <v>8</v>
-      </c>
-      <c r="O68">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3310,18 +2917,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3344,14 +2951,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431DF8FC-5839-4D38-ABE3-D0FFCABAC244}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00DDAAC6-A24B-4B3D-90CD-175146BB33AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
@@ -3366,4 +2965,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431DF8FC-5839-4D38-ABE3-D0FFCABAC244}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Recherche/Verbraucher_Liste.xlsx
+++ b/Recherche/Verbraucher_Liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Recherche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F709A3EB-B987-4024-A6C2-8DAF79782250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82F9D68-D2DF-4D8E-A6D8-C1E165129692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A5713B9-7BDF-4B08-B13D-A1629057CF83}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>Berechnungen</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>Frühling</t>
-  </si>
-  <si>
-    <t>Tag</t>
   </si>
 </sst>
 </file>
@@ -241,7 +238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,8 +293,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -472,11 +493,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -534,6 +568,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -586,7 +627,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Amper</a:t>
+              <a:t>Amperstunden</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -637,18 +678,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$S$44</c:f>
+              <c:f>Tabelle1!$W$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tag</c:v>
+                  <c:v>Ah/Tag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -656,9 +697,94 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-6BF7-42B0-90B2-5FFA10B7E6D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6BF7-42B0-90B2-5FFA10B7E6D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-6BF7-42B0-90B2-5FFA10B7E6D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6BF7-42B0-90B2-5FFA10B7E6D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$T$43:$W$43</c:f>
+              <c:f>Tabelle1!$X$22:$AA$22</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -678,7 +804,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$T$44:$W$44</c:f>
+              <c:f>Tabelle1!$X$23:$AA$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -876,12 +1002,9 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -1422,16 +1545,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>535880</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>21932</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>535879</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>535880</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>73318</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>535879</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>84524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1756,10 +1879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF31DFDF-97B0-4F3A-8875-BFBD65204E48}">
-  <dimension ref="B1:W64"/>
+  <dimension ref="B1:AA64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,7 +2159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>11</v>
       </c>
@@ -2051,7 +2174,7 @@
         <v>53.199999999999996</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2069,7 +2192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
@@ -2087,7 +2210,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2102,7 +2225,7 @@
         <v>3.3000000000000003</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2117,7 +2240,7 @@
         <v>0.17500000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2134,8 +2257,21 @@
       <c r="F22" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="W22" s="48"/>
+      <c r="X22" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y22" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z22" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA22" s="46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>34</v>
       </c>
@@ -2155,8 +2291,23 @@
       <c r="I23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="W23" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="X23" s="49">
+        <v>611</v>
+      </c>
+      <c r="Y23" s="49">
+        <v>598</v>
+      </c>
+      <c r="Z23" s="49">
+        <v>605</v>
+      </c>
+      <c r="AA23" s="49">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="23" t="s">
         <v>40</v>
       </c>
@@ -2174,7 +2325,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
         <v>44</v>
       </c>
@@ -2189,7 +2340,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" s="23" t="s">
         <v>45</v>
       </c>
@@ -2204,8 +2355,8 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13" t="s">
         <v>28</v>
       </c>
@@ -2219,7 +2370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,8 +2383,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="19" t="s">
         <v>31</v>
       </c>
@@ -2248,7 +2399,7 @@
         <v>622.71777331600003</v>
       </c>
     </row>
-    <row r="33" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>22</v>
       </c>
@@ -2262,7 +2413,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>13</v>
       </c>
@@ -2283,7 +2434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>12</v>
       </c>
@@ -2304,7 +2455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
@@ -2323,7 +2474,7 @@
       </c>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
@@ -2345,7 +2496,7 @@
       </c>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>35</v>
       </c>
@@ -2364,7 +2515,7 @@
       </c>
       <c r="J38" s="10"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
@@ -2379,7 +2530,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>16</v>
       </c>
@@ -2394,7 +2545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>9</v>
       </c>
@@ -2409,7 +2560,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>14</v>
       </c>
@@ -2424,7 +2575,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
@@ -2438,20 +2589,8 @@
         <f t="shared" si="2"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="T43" t="s">
-        <v>51</v>
-      </c>
-      <c r="U43" t="s">
-        <v>30</v>
-      </c>
-      <c r="V43" t="s">
-        <v>50</v>
-      </c>
-      <c r="W43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
@@ -2465,23 +2604,8 @@
         <f t="shared" si="2"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="S44" t="s">
-        <v>52</v>
-      </c>
-      <c r="T44">
-        <v>611</v>
-      </c>
-      <c r="U44">
-        <v>598</v>
-      </c>
-      <c r="V44">
-        <v>605</v>
-      </c>
-      <c r="W44">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
@@ -2496,7 +2620,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
@@ -2508,7 +2632,7 @@
       </c>
       <c r="E46" s="23"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>11</v>
       </c>
@@ -2523,7 +2647,7 @@
         <v>22.799999999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>17</v>
       </c>
@@ -2709,11 +2833,27 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010066D218312EEFFB44B3AF247528FBB131" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="ccc4f0ab89792f9a650c27bb72203c11">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4" xmlns:ns4="3c5defa8-09be-4c3a-a4a9-ac5e1b24444a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="861d577b163440ace70c5cf3b6c0985b" ns3:_="" ns4:_="">
     <xsd:import namespace="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
@@ -2916,36 +3056,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3ADD7B8-D51B-4A1D-906B-290B8C293B98}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431DF8FC-5839-4D38-ABE3-D0FFCABAC244}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
-    <ds:schemaRef ds:uri="3c5defa8-09be-4c3a-a4a9-ac5e1b24444a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2968,9 +3082,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{431DF8FC-5839-4D38-ABE3-D0FFCABAC244}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3ADD7B8-D51B-4A1D-906B-290B8C293B98}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6e75d7f9-8e7a-43dc-b6fb-72f2ec1c13e4"/>
+    <ds:schemaRef ds:uri="3c5defa8-09be-4c3a-a4a9-ac5e1b24444a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Recherche/Verbraucher_Liste.xlsx
+++ b/Recherche/Verbraucher_Liste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Recherche\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JonasKonrad\Documents\GitHub\Maturaprojekt\Recherche\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82F9D68-D2DF-4D8E-A6D8-C1E165129692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619B4E89-C3ED-4298-8FD6-08168D457821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8A5713B9-7BDF-4B08-B13D-A1629057CF83}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8A5713B9-7BDF-4B08-B13D-A1629057CF83}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="53">
   <si>
     <t>Berechnungen</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Frühling</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -506,11 +509,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -534,12 +561,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -562,12 +583,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -575,6 +590,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1879,10 +1905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF31DFDF-97B0-4F3A-8875-BFBD65204E48}">
-  <dimension ref="B1:AA64"/>
+  <dimension ref="B1:AA151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD30" sqref="AD30"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,17 +1926,17 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="26" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="24" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="5" cm="1">
-        <f t="array" ref="G2">SUM(E4:E26-E30)</f>
+        <f t="array" ref="G2">SUM(E4:E26-E29)</f>
         <v>598.20271999999989</v>
       </c>
     </row>
@@ -1927,7 +1953,7 @@
       <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2005,7 +2031,7 @@
       <c r="D7" s="14">
         <v>3.3333000000000002E-2</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="28">
         <f t="shared" si="0"/>
         <v>22.666440000000001</v>
       </c>
@@ -2184,7 +2210,7 @@
       <c r="D18" s="15">
         <v>0.214</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="27">
         <f t="shared" si="0"/>
         <v>2.5680000000000001</v>
       </c>
@@ -2257,31 +2283,31 @@
       <c r="F22" t="s">
         <v>39</v>
       </c>
-      <c r="W22" s="48"/>
-      <c r="X22" s="43" t="s">
+      <c r="W22" s="44"/>
+      <c r="X22" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="Y22" s="44" t="s">
+      <c r="Y22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="Z22" s="45" t="s">
+      <c r="Z22" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AA22" s="46" t="s">
+      <c r="AA22" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="18">
         <v>110</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D23" s="20">
         <v>0.01</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
         <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
@@ -2291,33 +2317,33 @@
       <c r="I23" t="s">
         <v>42</v>
       </c>
-      <c r="W23" s="47" t="s">
+      <c r="W23" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="X23" s="49">
+      <c r="X23" s="45">
         <v>611</v>
       </c>
-      <c r="Y23" s="49">
+      <c r="Y23" s="45">
         <v>598</v>
       </c>
-      <c r="Z23" s="49">
+      <c r="Z23" s="45">
         <v>605</v>
       </c>
-      <c r="AA23" s="49">
+      <c r="AA23" s="45">
         <v>622</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="21">
         <v>80</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="22">
         <v>0.16666600000000001</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="26">
         <f>D24*C24</f>
         <v>13.33328</v>
       </c>
@@ -2326,71 +2352,71 @@
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="23">
         <v>7</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="23">
         <v>5</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="23">
         <f t="shared" ref="E25:E26" si="1">D25*C25</f>
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="21">
         <v>5.7</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="21">
         <v>1</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="21">
         <f t="shared" si="1"/>
         <v>5.7</v>
       </c>
     </row>
-    <row r="28" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="13" t="s">
+    <row r="27" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C28" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B30" s="1" t="s">
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4">
         <v>0.2</v>
       </c>
-      <c r="E30" s="4">
-        <f>C30*D30</f>
+      <c r="E29" s="4">
+        <f>C29*D29</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="2:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
       <c r="F32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2484,7 +2510,7 @@
       <c r="D37" s="14">
         <v>3.3333000000000002E-2</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="28">
         <f t="shared" si="2"/>
         <v>22.666440000000001</v>
       </c>
@@ -2597,7 +2623,7 @@
       <c r="C44" s="1">
         <v>12</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="34">
         <v>0.1</v>
       </c>
       <c r="E44" s="17">
@@ -2609,13 +2635,13 @@
       <c r="B45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="29">
         <v>10</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="35">
         <v>8</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="23">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
@@ -2624,25 +2650,25 @@
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="32">
+      <c r="C46" s="30">
         <v>1</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="36">
         <v>10</v>
       </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="29">
         <v>7.6</v>
       </c>
-      <c r="D47" s="25">
+      <c r="D47" s="23">
         <v>3</v>
       </c>
-      <c r="E47" s="25">
+      <c r="E47" s="23">
         <f t="shared" ref="E47:E56" si="3">C47*D47</f>
         <v>22.799999999999997</v>
       </c>
@@ -2651,13 +2677,13 @@
       <c r="B48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="32">
+      <c r="C48" s="30">
         <v>12</v>
       </c>
-      <c r="D48" s="23">
+      <c r="D48" s="21">
         <v>2</v>
       </c>
-      <c r="E48" s="23">
+      <c r="E48" s="21">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
@@ -2669,13 +2695,13 @@
       <c r="B49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="29">
         <v>12</v>
       </c>
-      <c r="D49" s="39">
+      <c r="D49" s="37">
         <v>0.214</v>
       </c>
-      <c r="E49" s="40">
+      <c r="E49" s="38">
         <f t="shared" si="3"/>
         <v>2.5680000000000001</v>
       </c>
@@ -2687,13 +2713,13 @@
       <c r="B50" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="32">
+      <c r="C50" s="30">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D50" s="23">
+      <c r="D50" s="21">
         <v>1</v>
       </c>
-      <c r="E50" s="23">
+      <c r="E50" s="21">
         <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
@@ -2702,13 +2728,13 @@
       <c r="B51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="29">
         <v>17.5</v>
       </c>
-      <c r="D51" s="25">
+      <c r="D51" s="23">
         <v>1.5</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="38">
         <f t="shared" si="3"/>
         <v>26.25</v>
       </c>
@@ -2717,13 +2743,13 @@
       <c r="B52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="32">
+      <c r="C52" s="30">
         <v>5.2</v>
       </c>
-      <c r="D52" s="24">
+      <c r="D52" s="22">
         <v>8.3333329999999997E-2</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E52" s="26">
         <f t="shared" si="3"/>
         <v>0.43333331600000002</v>
       </c>
@@ -2732,16 +2758,16 @@
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="31">
         <v>110</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53" s="23">
         <v>0.45</v>
       </c>
-      <c r="E53" s="25">
+      <c r="E53" s="23">
         <f t="shared" si="3"/>
         <v>49.5</v>
       </c>
@@ -2750,46 +2776,46 @@
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="23" t="s">
+      <c r="B54" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="34">
+      <c r="C54" s="32">
         <v>80</v>
       </c>
-      <c r="D54" s="23">
+      <c r="D54" s="21">
         <v>0.17</v>
       </c>
-      <c r="E54" s="23">
+      <c r="E54" s="21">
         <f>C54*D54</f>
         <v>13.600000000000001</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="33">
         <v>7</v>
       </c>
-      <c r="D55" s="25">
+      <c r="D55" s="23">
         <v>5</v>
       </c>
-      <c r="E55" s="25">
+      <c r="E55" s="23">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C56" s="34">
+      <c r="C56" s="32">
         <v>5.7</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="21">
         <v>1</v>
       </c>
-      <c r="E56" s="23">
+      <c r="E56" s="21">
         <f t="shared" si="3"/>
         <v>5.7</v>
       </c>
@@ -2827,9 +2853,1095 @@
         <v>43</v>
       </c>
     </row>
+    <row r="67" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="46">
+        <v>3.5</v>
+      </c>
+      <c r="D69" s="47">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="29">
+        <v>4.5</v>
+      </c>
+      <c r="D70" s="23">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="30">
+        <v>19</v>
+      </c>
+      <c r="D71" s="21">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="29">
+        <v>680</v>
+      </c>
+      <c r="D72" s="23">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="30">
+        <v>4</v>
+      </c>
+      <c r="D73" s="47">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="D74" s="23">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="30">
+        <v>3</v>
+      </c>
+      <c r="D75" s="47">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="29">
+        <v>0.4</v>
+      </c>
+      <c r="D76" s="23">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="30">
+        <v>9.5</v>
+      </c>
+      <c r="D77" s="47">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="D78" s="23">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="30">
+        <v>12</v>
+      </c>
+      <c r="D79" s="47">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="29">
+        <v>10</v>
+      </c>
+      <c r="D80" s="23">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="30">
+        <v>1</v>
+      </c>
+      <c r="D81" s="47">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="29">
+        <v>7.6</v>
+      </c>
+      <c r="D82" s="23">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="30">
+        <v>12</v>
+      </c>
+      <c r="D83" s="47">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="29">
+        <v>12</v>
+      </c>
+      <c r="D84" s="23">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="30">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D85" s="47">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="29">
+        <v>17.5</v>
+      </c>
+      <c r="D86" s="23">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C87" s="30">
+        <v>5.2</v>
+      </c>
+      <c r="D87" s="47">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="31">
+        <v>110</v>
+      </c>
+      <c r="D88" s="23">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="32">
+        <v>80</v>
+      </c>
+      <c r="D89" s="47">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="33">
+        <v>7</v>
+      </c>
+      <c r="D90" s="23">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="32">
+        <v>5.7</v>
+      </c>
+      <c r="D91" s="21">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C94" s="49"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G94" s="5" cm="1">
+        <f t="array" ref="G94">SUM(E96:E118-E121)</f>
+        <v>610.68471999999997</v>
+      </c>
+      <c r="H94">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F95" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D96" s="4">
+        <v>9</v>
+      </c>
+      <c r="E96" s="4">
+        <f t="shared" ref="E96:E115" si="4">C96*D96</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D97" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E97" s="16">
+        <f t="shared" si="4"/>
+        <v>38.25</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1">
+        <v>19</v>
+      </c>
+      <c r="D98" s="1">
+        <v>12</v>
+      </c>
+      <c r="E98" s="4">
+        <f t="shared" si="4"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="2">
+        <v>680</v>
+      </c>
+      <c r="D99" s="14">
+        <v>3.3333000000000002E-2</v>
+      </c>
+      <c r="E99" s="28">
+        <f t="shared" si="4"/>
+        <v>22.666440000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="1">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1">
+        <v>24</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D101" s="2">
+        <v>1</v>
+      </c>
+      <c r="E101" s="16">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="1">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2</v>
+      </c>
+      <c r="E102" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D103" s="2">
+        <v>3</v>
+      </c>
+      <c r="E103" s="16">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="D104" s="1">
+        <v>3</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" si="4"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D105" s="2">
+        <v>11</v>
+      </c>
+      <c r="E105" s="16">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" s="1">
+        <v>12</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107" s="2">
+        <v>10</v>
+      </c>
+      <c r="D107" s="2">
+        <v>0</v>
+      </c>
+      <c r="E107" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>7</v>
+      </c>
+      <c r="E108" s="4">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="D109" s="2">
+        <v>7</v>
+      </c>
+      <c r="E109" s="16">
+        <f t="shared" si="4"/>
+        <v>53.199999999999996</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="1">
+        <v>12</v>
+      </c>
+      <c r="D110" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E110" s="27">
+        <f t="shared" si="4"/>
+        <v>2.4000000000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="2">
+        <v>12</v>
+      </c>
+      <c r="D111" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E111" s="16">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
+      <c r="E112" s="4">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D113" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E113" s="16">
+        <f t="shared" si="4"/>
+        <v>0.17500000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E114" s="17">
+        <f t="shared" si="4"/>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C115" s="18">
+        <v>110</v>
+      </c>
+      <c r="D115" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="E115" s="19">
+        <f t="shared" si="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="21">
+        <v>80</v>
+      </c>
+      <c r="D116" s="22">
+        <v>0.16666600000000001</v>
+      </c>
+      <c r="E116" s="26">
+        <f>D116*C116</f>
+        <v>13.33328</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C117" s="23">
+        <v>7</v>
+      </c>
+      <c r="D117" s="23">
+        <v>5</v>
+      </c>
+      <c r="E117" s="23">
+        <f t="shared" ref="E117:E118" si="5">D117*C117</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C118" s="21">
+        <v>5.7</v>
+      </c>
+      <c r="D118" s="21">
+        <v>1</v>
+      </c>
+      <c r="E118" s="21">
+        <f t="shared" si="5"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E121" s="4">
+        <f>C121*D121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C124" s="49"/>
+      <c r="D124" s="49"/>
+      <c r="E124" s="49"/>
+      <c r="F124" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124" s="5" cm="1">
+        <f t="array" ref="G124">SUM(E126:E148-E151)</f>
+        <v>605.03471999999999</v>
+      </c>
+      <c r="H124">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="D126" s="4">
+        <v>8</v>
+      </c>
+      <c r="E126" s="4">
+        <f t="shared" ref="E126:E145" si="6">C126*D126</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="D127" s="2">
+        <v>8</v>
+      </c>
+      <c r="E127" s="16">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="1">
+        <v>19</v>
+      </c>
+      <c r="D128" s="1">
+        <v>12</v>
+      </c>
+      <c r="E128" s="4">
+        <f t="shared" si="6"/>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129" s="2">
+        <v>680</v>
+      </c>
+      <c r="D129" s="14">
+        <v>3.3333000000000002E-2</v>
+      </c>
+      <c r="E129" s="28">
+        <f t="shared" si="6"/>
+        <v>22.666440000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130" s="1">
+        <v>4</v>
+      </c>
+      <c r="D130" s="1">
+        <v>24</v>
+      </c>
+      <c r="E130" s="4">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="D131" s="2">
+        <v>1</v>
+      </c>
+      <c r="E131" s="16">
+        <f t="shared" si="6"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C132" s="1">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E132" s="4">
+        <f t="shared" si="6"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D133" s="2">
+        <v>4</v>
+      </c>
+      <c r="E133" s="16">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="D134" s="1">
+        <v>3</v>
+      </c>
+      <c r="E134" s="4">
+        <f t="shared" si="6"/>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D135" s="2">
+        <v>8</v>
+      </c>
+      <c r="E135" s="16">
+        <f t="shared" si="6"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B136" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136" s="1">
+        <v>12</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E136" s="4">
+        <f t="shared" si="6"/>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="2">
+        <v>10</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E137" s="16">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B138" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1">
+        <v>8</v>
+      </c>
+      <c r="E138" s="4">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="2">
+        <v>7.6</v>
+      </c>
+      <c r="D139" s="2">
+        <v>7</v>
+      </c>
+      <c r="E139" s="16">
+        <f t="shared" si="6"/>
+        <v>53.199999999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B140" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="1">
+        <v>12</v>
+      </c>
+      <c r="D140" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="E140" s="27">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="2">
+        <v>12</v>
+      </c>
+      <c r="D141" s="2">
+        <v>2</v>
+      </c>
+      <c r="E141" s="16">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D142" s="1">
+        <v>2</v>
+      </c>
+      <c r="E142" s="4">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E143" s="16">
+        <f t="shared" si="6"/>
+        <v>0.17500000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="D144" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E144" s="17">
+        <f t="shared" si="6"/>
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B145" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C145" s="18">
+        <v>110</v>
+      </c>
+      <c r="D145" s="20">
+        <v>0.01</v>
+      </c>
+      <c r="E145" s="19">
+        <f t="shared" si="6"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B146" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C146" s="21">
+        <v>80</v>
+      </c>
+      <c r="D146" s="22">
+        <v>0.16666600000000001</v>
+      </c>
+      <c r="E146" s="26">
+        <f>D146*C146</f>
+        <v>13.33328</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B147" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C147" s="23">
+        <v>7</v>
+      </c>
+      <c r="D147" s="23">
+        <v>4</v>
+      </c>
+      <c r="E147" s="23">
+        <f t="shared" ref="E147:E148" si="7">D147*C147</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B148" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="21">
+        <v>5.7</v>
+      </c>
+      <c r="D148" s="21">
+        <v>1</v>
+      </c>
+      <c r="E148" s="21">
+        <f t="shared" si="7"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="150" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B151" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="D151" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E151" s="4">
+        <f>C151*D151</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="B32:E32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
